--- a/reports/corpus_1500-unigram_trigram-fold-2.xlsx
+++ b/reports/corpus_1500-unigram_trigram-fold-2.xlsx
@@ -552,70 +552,70 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9975429975429976</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9933333333333333</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8505338078291815</v>
+        <v>0.9786476868327402</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8825910931174089</v>
+        <v>0.9959514170040485</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8316221765913757</v>
+        <v>0.9363449691991786</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9124087591240876</v>
+        <v>0.948905109489051</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9048991354466859</v>
+        <v>0.9567723342939481</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5150753768844221</v>
+        <v>0.8190954773869347</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9471677559912854</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3356070941336972</v>
+        <v>0.6534788540245566</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6344827586206897</v>
+        <v>0.9379310344827586</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4727272727272727</v>
+        <v>0.8227272727272728</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3990825688073394</v>
+        <v>0.790519877675841</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6854229607250756</v>
+        <v>0.8612789526686808</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5863318544503869</v>
+        <v>0.8563040116495815</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8419067781453442</v>
+        <v>0.8867885017215735</v>
       </c>
     </row>
     <row r="3">
@@ -631,28 +631,28 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9617706237424547</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7985347985347986</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9688995215311005</v>
+        <v>0.9559748427672956</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9541984732824428</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9936708860759493</v>
+        <v>0.9822485207100592</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9151785714285714</v>
+        <v>0.9005524861878453</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -661,34 +661,34 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.431640625</v>
+        <v>0.6642475171886937</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9979716024340771</v>
+        <v>0.9989572471324296</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9784172661870504</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9811320754716981</v>
+        <v>0.9329896907216495</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9094076655052264</v>
+        <v>0.9223907225691347</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6854229607250756</v>
+        <v>0.8612789526686808</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8363751709085072</v>
+        <v>0.9421155938359026</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6854229607250756</v>
+        <v>0.8612789526686808</v>
       </c>
     </row>
     <row r="4">
@@ -698,70 +698,70 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.998769987699877</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9966555183946488</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9027384324834749</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8384615384615385</v>
+        <v>0.9335863377609108</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8950276243093923</v>
+        <v>0.9460580912863071</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9328358208955224</v>
+        <v>0.9558823529411765</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9472096530920061</v>
+        <v>0.9693430656934306</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6591639871382636</v>
+        <v>0.8578947368421053</v>
       </c>
       <c r="L4" t="n">
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5960890087660149</v>
+        <v>0.7808711270767849</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5022970903522206</v>
+        <v>0.7901030927835052</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7698744769874478</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.638036809815951</v>
+        <v>0.8743961352657005</v>
       </c>
       <c r="R4" t="n">
-        <v>0.375</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5547290116896918</v>
+        <v>0.8513791683820503</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6854229607250756</v>
+        <v>0.8612789526686808</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6394538948853207</v>
+        <v>0.8885645167918245</v>
       </c>
       <c r="W4" t="n">
-        <v>0.689790531970363</v>
+        <v>0.8602257607256114</v>
       </c>
     </row>
     <row r="5">
@@ -771,64 +771,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C5" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="E5" t="n">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="H5" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="K5" t="n">
-        <v>224</v>
+        <v>362</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>4096</v>
+        <v>2618</v>
       </c>
       <c r="O5" t="n">
-        <v>493</v>
+        <v>959</v>
       </c>
       <c r="P5" t="n">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="Q5" t="n">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="R5" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="S5" t="n">
-        <v>574</v>
+        <v>1121</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6854229607250756</v>
+        <v>0.8612789526686808</v>
       </c>
       <c r="V5" t="n">
         <v>7944</v>
